--- a/src/main/resources/input.xlsx
+++ b/src/main/resources/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DZPB\Dokumentendruck\itext-test\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2255A0D9-768D-4374-AA3C-4CE1FCC7FE2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD58B486-E848-4993-BC15-C35FA6050364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{1F457028-7EC1-4E19-8DFA-8921B2A61D58}"/>
   </bookViews>
@@ -57,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +65,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -385,28 +401,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F9E605-587D-4F6A-A0A9-87A158D3C52E}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
